--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1748654440055674</v>
+        <v>0.2322900381552812</v>
       </c>
       <c r="D2">
-        <v>0.8611923889266213</v>
+        <v>0.8177053223704471</v>
       </c>
       <c r="E2">
         <v>5.226260711077537</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2522966447994023</v>
+        <v>0.2721584051040664</v>
       </c>
       <c r="D3">
-        <v>0.8008220713008845</v>
+        <v>0.7871462031477796</v>
       </c>
       <c r="E3">
         <v>5.226260711077537</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7941074011957032</v>
+        <v>-1.285616366838133</v>
       </c>
       <c r="D4">
-        <v>0.4271703041336097</v>
+        <v>0.2072647646266859</v>
       </c>
       <c r="E4">
         <v>5.226260711077537</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.904081491108554</v>
+        <v>-1.886956868901056</v>
       </c>
       <c r="D5">
-        <v>0.003699331291844299</v>
+        <v>0.06772870268374653</v>
       </c>
       <c r="E5">
         <v>5.226260711077537</v>
@@ -531,7 +531,7 @@
         <v>7.277405719591279</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.03406923763693283</v>
+        <v>0.04514201149405924</v>
       </c>
       <c r="D6">
-        <v>0.9728232884424102</v>
+        <v>0.9642582122579351</v>
       </c>
       <c r="E6">
         <v>5.129938965741174</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.218820953692908</v>
+        <v>-1.277224288730588</v>
       </c>
       <c r="D7">
-        <v>0.222969211629354</v>
+        <v>0.2101765164717231</v>
       </c>
       <c r="E7">
         <v>5.129938965741174</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-3.049227113496483</v>
+        <v>-2.090731912133612</v>
       </c>
       <c r="D8">
-        <v>0.002306224604991414</v>
+        <v>0.04409976294715556</v>
       </c>
       <c r="E8">
         <v>5.129938965741174</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.23085060541111</v>
+        <v>-1.309198466453444</v>
       </c>
       <c r="D9">
-        <v>0.2184361929659462</v>
+        <v>0.1992463668175881</v>
       </c>
       <c r="E9">
         <v>5.11242371043947</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-3.047469340346984</v>
+        <v>-1.933660733967795</v>
       </c>
       <c r="D10">
-        <v>0.002319730243379059</v>
+        <v>0.06151523306906181</v>
       </c>
       <c r="E10">
         <v>5.11242371043947</v>
@@ -661,7 +661,7 @@
         <v>7.277405719591279</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.309665197974658</v>
+        <v>-1.57740218652866</v>
       </c>
       <c r="D11">
-        <v>0.0209469265673583</v>
+        <v>0.1239630975042803</v>
       </c>
       <c r="E11">
         <v>5.704773927835949</v>
@@ -687,7 +687,7 @@
         <v>7.277405719591279</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
